--- a/project_record.xlsx
+++ b/project_record.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\새 폴더 (4)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="9675" windowHeight="8070"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>2021 년 12월 21일 화요일</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -123,13 +128,65 @@
   </si>
   <si>
     <t xml:space="preserve">카메라 모듈 영상 윤각선 처리 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 년 12월 27일 월요일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇팔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 아두이노 라즈베리 간 TCP/IP 연결                ※ 라즈베리 간 MQTT 연결</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리 python-paho 활용 MQTT pub/sub 구현 별도의 스레드에 아두이노연결 용 TCP/IP 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상, 윤곽선 통합 처리 및 값 넘기기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상, 윤곽선 통합 처리(△), 값 넘기기(x)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상, 윤곽선 통합 처리(o), 값 넘기기(o)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇 팔 (용접{액션}) 조립</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RTV(Robot Trans Vision) 구축 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 메인에 통신, 모듈&gt; 로봇 / 비전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 년 12월 28일 화요일</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +352,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -307,6 +373,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -355,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,7 +459,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -788,19 +857,134 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/project_record.xlsx
+++ b/project_record.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\새 폴더 (4)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="9675" windowHeight="8070"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>2021 년 12월 21일 화요일</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -163,10 +158,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ㅡ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>로봇 팔 (용접{액션}) 조립</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -180,13 +171,53 @@
   </si>
   <si>
     <t>2021 년 12월 28일 화요일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 년 12월 28일 수요일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇팔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 상황별 대처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C Smbus 활용 로봇팔 제어 성공</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아두이노, 라즈베리파이 MQTT 통신 통합           </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상호 pub/sub 가능 (아두이노, 라즈베리파이) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VC 개요 완성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 모델, 천장 모델 확보</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,7 +490,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D39"/>
+  <dimension ref="B2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -884,7 +915,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>34</v>
@@ -912,9 +943,7 @@
       <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="C30" s="14"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -934,12 +963,12 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="13" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -960,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -984,6 +1013,66 @@
       <c r="C39" s="12"/>
       <c r="D39" s="13" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/project_record.xlsx
+++ b/project_record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>2021 년 12월 21일 화요일</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -211,6 +211,34 @@
   </si>
   <si>
     <t>차량 모델, 천장 모델 확보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 년 01월 03일 월요일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신 통합 o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 상황별 대처(색상)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어GUI 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨베이어벨트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨베이어벨트 릴모듈 제어</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,6 +421,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -699,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D46"/>
+  <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1073,6 +1107,68 @@
       </c>
       <c r="D46" s="13" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/project_record.xlsx
+++ b/project_record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>2021 년 12월 21일 화요일</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>통신 통합 o</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>카메라 상황별 대처(색상)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -239,6 +235,14 @@
   </si>
   <si>
     <t>컨베이어벨트 릴모듈 제어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아두이노, 라즈베리파이 비전 모듈화 및 통신 통합           </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비전 모듈화 및 통신 통합 o</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -735,14 +739,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="40.375" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1132,10 +1136,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -1143,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>50</v>
@@ -1154,7 +1158,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="16">
         <v>0</v>
@@ -1162,10 +1166,10 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="D53" s="16">
         <v>0</v>

--- a/project_record.xlsx
+++ b/project_record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t>2021 년 12월 21일 화요일</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -243,6 +243,30 @@
   </si>
   <si>
     <t>비전 모듈화 및 통신 통합 o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 윤각선 추출 및 리턴 값</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 리턴 값을 받아와서 제어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저 센서와 조도 센서로 컨베이어 제어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RTV통합          </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜레이 감소, MQTT 통신 연결 확인 요망</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D53"/>
+  <dimension ref="B2:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1173,6 +1197,68 @@
       </c>
       <c r="D53" s="16">
         <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/project_record.xlsx
+++ b/project_record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>2021 년 12월 21일 화요일</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -267,6 +267,54 @@
   </si>
   <si>
     <t>딜레이 감소, MQTT 통신 연결 확인 요망</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 년 01월 04일 화요일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 년 01월 05일 수요일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상검출 및 분류 정확도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리 간 mqtt pub/sub 연결 성공</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub - python 무한 루프 간 전역변수 holding 문제, loop시작-끝 지점을 선정하고 처리 후 스레드(타이머)이용 전역변수 값 호출(o)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제점 및 해결</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>count 정확도 증가 -&gt; 파란색을 2개 씩 카운트 하는 이슈 _&gt; 예외처리 적용 (내부 count), 딜레이(X)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC_CAR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C공정 지게차 공정, </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C공정 로봇 프로그래밍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로봇 팔 제어(수동, 자동)완료 -&gt; 신호 요망(통신) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC카(과회전 및 출력 이슈 해결 요망)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -761,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D60"/>
+  <dimension ref="B2:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1201,7 +1249,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -1259,6 +1307,68 @@
       </c>
       <c r="D60" s="16" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B64" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B65" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/project_record.xlsx
+++ b/project_record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
   <si>
     <t>2021 년 12월 21일 화요일</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -315,6 +315,38 @@
   </si>
   <si>
     <t>RC카(과회전 및 출력 이슈 해결 요망)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 년 01월 06일 목요일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정1 비전-연동 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정2 - 비전-연동 필요 -&gt; 로봇 제어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤곽선 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수화 처리 0, 통신에서 함수 처리 여부 확인 요망</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정 1 분류별 각도 조절</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각도 조절 중</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RC카 과회전 및 출력 이슈 해결 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -809,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D67"/>
+  <dimension ref="B2:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1369,6 +1401,68 @@
       </c>
       <c r="D67" s="13" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/project_record.xlsx
+++ b/project_record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
   <si>
     <t>2021 년 12월 21일 화요일</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -338,15 +338,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>각도 조절 중</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RC카 과회전 및 출력 이슈 해결 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 년 01월 10일 월요일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 원격 접속 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 원격 접속 처리 O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>공정 1 분류별 각도 조절</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>각도 조절 중</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RC카 과회전 및 출력 이슈 해결 </t>
+    <t>공정 1 분류별 각도 조절,공정 2 분류별 각도 조절</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공정 2 카메라 높이  조절 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 받침대 다리 높이 조절  해결O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정 1 분류별 각도 조절 O, 고정 2 분류별 각도 조절 O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스카다 UI 연동 -&gt; A process 현황</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A -&gt; B에서의 값 갱신 문제 해결 요망 (MultiProcessing, async 활용 -&gt; vision값 복수 읽기 방지 (미완)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -841,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D74"/>
+  <dimension ref="B2:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1448,10 +1488,10 @@
         <v>28</v>
       </c>
       <c r="C73" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -1462,7 +1502,69 @@
         <v>71</v>
       </c>
       <c r="D74" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="5" t="s">
         <v>82</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/project_record.xlsx
+++ b/project_record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
   <si>
     <t>2021 년 12월 21일 화요일</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -378,15 +378,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>공정 1 분류별 각도 조절 O, 고정 2 분류별 각도 조절 O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>스카다 UI 연동 -&gt; A process 현황</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A -&gt; B에서의 값 갱신 문제 해결 요망 (MultiProcessing, async 활용 -&gt; vision값 복수 읽기 방지 (미완)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 년 01월 12일 수요일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlite 와 SCADA 연동하여 DB저장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle 사용불가, sqlite 사용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정2 size, area 정확도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확도 해결</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정2 각도 조절</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정2 각도 조절중</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정 1 분류별 각도 조절 O, 고정 2 분류별 각도 조절중</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP MQTT 호환연동, 스카다 태그 관리 (MQTT)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A공정 로봇 시작-끝, B공정 데이터 신호 송신요망</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -881,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D81"/>
+  <dimension ref="B2:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80:I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1528,10 +1564,10 @@
         <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
@@ -1553,7 +1589,7 @@
         <v>87</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
@@ -1565,6 +1601,68 @@
       </c>
       <c r="D81" s="16" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/project_record.xlsx
+++ b/project_record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
   <si>
     <t>2021 년 12월 21일 화요일</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -378,10 +378,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>스카다 UI 연동 -&gt; A process 현황</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>A -&gt; B에서의 값 갱신 문제 해결 요망 (MultiProcessing, async 활용 -&gt; vision값 복수 읽기 방지 (미완)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -390,10 +386,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sqlite 와 SCADA 연동하여 DB저장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>oracle 사용불가, sqlite 사용</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -423,6 +415,121 @@
   </si>
   <si>
     <t>A공정 로봇 시작-끝, B공정 데이터 신호 송신요망</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 년 01월 13일 목요일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량품 스크린샷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크린샷 저장 완료 -&gt; c#에서 확인 필요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLite 와 c# 연동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sqlite 와 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCADA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연동하여 DB저장</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCADA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UI 연동 -&gt; A process 현황</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C#에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCADA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 와 sqlite 동시 호출 시 충돌,  사용 불가</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,8 +569,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +611,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -560,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,6 +755,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -917,27 +1073,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D88"/>
+  <dimension ref="B2:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80:I80"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4">
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -948,7 +1104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="19.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
@@ -959,7 +1115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -970,7 +1126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
@@ -981,19 +1137,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4">
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4">
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
@@ -1004,7 +1160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="17.25" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4">
       <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" ht="40.5" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
@@ -1037,14 +1193,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4">
       <c r="B15" s="10" t="s">
         <v>1</v>
       </c>
@@ -1055,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="99">
       <c r="B16" s="10" t="s">
         <v>4</v>
       </c>
@@ -1066,7 +1222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" s="10" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" s="10" t="s">
         <v>3</v>
       </c>
@@ -1088,14 +1244,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4">
       <c r="B21" s="10" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="33">
       <c r="B22" s="10" t="s">
         <v>4</v>
       </c>
@@ -1117,7 +1273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4">
       <c r="B23" s="10" t="s">
         <v>2</v>
       </c>
@@ -1128,7 +1284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4">
       <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
@@ -1139,14 +1295,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4">
       <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4">
       <c r="B29" s="10" t="s">
         <v>1</v>
       </c>
@@ -1157,14 +1313,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4">
       <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4">
       <c r="B31" s="10" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1331,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4">
       <c r="B32" s="10" t="s">
         <v>28</v>
       </c>
@@ -1184,14 +1340,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4">
       <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4">
       <c r="B36" s="10" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4">
       <c r="B37" s="10" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4">
       <c r="B38" s="10" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4">
       <c r="B39" s="10" t="s">
         <v>28</v>
       </c>
@@ -1233,14 +1389,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4">
       <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4">
       <c r="B42" s="10" t="s">
         <v>1</v>
       </c>
@@ -1251,7 +1407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4">
       <c r="B43" s="10" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4">
       <c r="B44" s="10" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1429,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4">
       <c r="B45" s="10" t="s">
         <v>40</v>
       </c>
@@ -1282,7 +1438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4">
       <c r="B46" s="10" t="s">
         <v>46</v>
       </c>
@@ -1293,14 +1449,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4">
       <c r="B48" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4">
       <c r="B49" s="10" t="s">
         <v>1</v>
       </c>
@@ -1311,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4">
       <c r="B50" s="10" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1478,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4">
       <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
@@ -1333,7 +1489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4">
       <c r="B52" s="10" t="s">
         <v>28</v>
       </c>
@@ -1344,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4">
       <c r="B53" s="10" t="s">
         <v>53</v>
       </c>
@@ -1355,14 +1511,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4">
       <c r="B55" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4">
       <c r="B56" s="10" t="s">
         <v>1</v>
       </c>
@@ -1373,7 +1529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4">
       <c r="B57" s="10" t="s">
         <v>4</v>
       </c>
@@ -1384,7 +1540,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4">
       <c r="B58" s="10" t="s">
         <v>2</v>
       </c>
@@ -1395,7 +1551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4">
       <c r="B59" s="10" t="s">
         <v>28</v>
       </c>
@@ -1406,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4">
       <c r="B60" s="10" t="s">
         <v>53</v>
       </c>
@@ -1417,14 +1573,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4">
       <c r="B62" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4">
       <c r="B63" s="10" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +1591,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" ht="49.5">
       <c r="B64" s="10" t="s">
         <v>4</v>
       </c>
@@ -1446,7 +1602,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" ht="33">
       <c r="B65" s="10" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1613,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4">
       <c r="B66" s="10" t="s">
         <v>28</v>
       </c>
@@ -1468,7 +1624,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4">
       <c r="B67" s="10" t="s">
         <v>70</v>
       </c>
@@ -1479,14 +1635,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4">
       <c r="B69" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4">
       <c r="B70" s="10" t="s">
         <v>1</v>
       </c>
@@ -1497,7 +1653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4">
       <c r="B71" s="10" t="s">
         <v>4</v>
       </c>
@@ -1508,7 +1664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4">
       <c r="B72" s="10" t="s">
         <v>2</v>
       </c>
@@ -1519,7 +1675,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4">
       <c r="B73" s="10" t="s">
         <v>28</v>
       </c>
@@ -1530,7 +1686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4">
       <c r="B74" s="10" t="s">
         <v>70</v>
       </c>
@@ -1541,14 +1697,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4">
       <c r="B76" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4">
       <c r="B77" s="10" t="s">
         <v>1</v>
       </c>
@@ -1559,18 +1715,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" ht="33">
       <c r="B78" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D78" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="2:4">
       <c r="B79" s="10" t="s">
         <v>2</v>
       </c>
@@ -1581,7 +1737,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4">
       <c r="B80" s="10" t="s">
         <v>28</v>
       </c>
@@ -1589,10 +1745,10 @@
         <v>87</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
       <c r="B81" s="10" t="s">
         <v>83</v>
       </c>
@@ -1603,14 +1759,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4">
       <c r="B83" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4">
       <c r="B84" s="10" t="s">
         <v>1</v>
       </c>
@@ -1621,48 +1777,102 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4">
       <c r="B85" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
       <c r="B86" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
       <c r="B87" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
       <c r="B88" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>94</v>
+      <c r="C88" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="15"/>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1691,7 +1901,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
